--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.904828666666667</v>
+        <v>3.112844666666666</v>
       </c>
       <c r="N2">
-        <v>11.714486</v>
+        <v>9.338533999999999</v>
       </c>
       <c r="O2">
-        <v>0.0982284141177371</v>
+        <v>0.0962303687181678</v>
       </c>
       <c r="P2">
-        <v>0.09822841411773711</v>
+        <v>0.09623036871816783</v>
       </c>
       <c r="Q2">
-        <v>1.193870126204</v>
+        <v>0.009312593627777777</v>
       </c>
       <c r="R2">
-        <v>10.744831135836</v>
+        <v>0.08381334265</v>
       </c>
       <c r="S2">
-        <v>0.003439759514754339</v>
+        <v>3.431972952500323E-05</v>
       </c>
       <c r="T2">
-        <v>0.003439759514754338</v>
+        <v>3.431972952500323E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>53.978117</v>
       </c>
       <c r="O3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073433</v>
       </c>
       <c r="P3">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073434</v>
       </c>
       <c r="Q3">
-        <v>5.501125815937999</v>
+        <v>0.05382817778611111</v>
       </c>
       <c r="R3">
-        <v>49.51013234344199</v>
+        <v>0.484453600075</v>
       </c>
       <c r="S3">
-        <v>0.01584975572460225</v>
+        <v>0.0001983731467603993</v>
       </c>
       <c r="T3">
-        <v>0.01584975572460225</v>
+        <v>0.0001983731467603993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.85500266666667</v>
+        <v>11.24229066666667</v>
       </c>
       <c r="N4">
-        <v>53.565008</v>
+        <v>33.726872</v>
       </c>
       <c r="O4">
-        <v>0.449153790276748</v>
+        <v>0.3475437716744887</v>
       </c>
       <c r="P4">
-        <v>0.4491537902767481</v>
+        <v>0.3475437716744888</v>
       </c>
       <c r="Q4">
-        <v>5.459024225312</v>
+        <v>0.03363318624444445</v>
       </c>
       <c r="R4">
-        <v>49.13121802780799</v>
+        <v>0.3026986762</v>
       </c>
       <c r="S4">
-        <v>0.01572845329499666</v>
+        <v>0.0001239484832163597</v>
       </c>
       <c r="T4">
-        <v>0.01572845329499666</v>
+        <v>0.0001239484832163598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.092532</v>
       </c>
       <c r="I5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.904828666666667</v>
+        <v>3.112844666666666</v>
       </c>
       <c r="N5">
-        <v>11.714486</v>
+        <v>9.338533999999999</v>
       </c>
       <c r="O5">
-        <v>0.0982284141177371</v>
+        <v>0.0962303687181678</v>
       </c>
       <c r="P5">
-        <v>0.09822841411773711</v>
+        <v>0.09623036871816783</v>
       </c>
       <c r="Q5">
-        <v>32.66067942428355</v>
+        <v>26.03638480312088</v>
       </c>
       <c r="R5">
-        <v>293.946114818552</v>
+        <v>234.327463228088</v>
       </c>
       <c r="S5">
-        <v>0.09410142723415789</v>
+        <v>0.09595196783704603</v>
       </c>
       <c r="T5">
-        <v>0.0941014272341579</v>
+        <v>0.09595196783704607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.092532</v>
       </c>
       <c r="I6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>53.978117</v>
       </c>
       <c r="O6">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073433</v>
       </c>
       <c r="P6">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073434</v>
       </c>
       <c r="Q6">
         <v>150.4941809024715</v>
@@ -818,10 +818,10 @@
         <v>1354.447628122244</v>
       </c>
       <c r="S6">
-        <v>0.4336014272510429</v>
+        <v>0.5546166610613944</v>
       </c>
       <c r="T6">
-        <v>0.4336014272510429</v>
+        <v>0.5546166610613946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.092532</v>
       </c>
       <c r="I7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.85500266666667</v>
+        <v>11.24229066666667</v>
       </c>
       <c r="N7">
-        <v>53.565008</v>
+        <v>33.726872</v>
       </c>
       <c r="O7">
-        <v>0.449153790276748</v>
+        <v>0.3475437716744887</v>
       </c>
       <c r="P7">
-        <v>0.4491537902767481</v>
+        <v>0.3475437716744888</v>
       </c>
       <c r="Q7">
-        <v>149.3424085911395</v>
+        <v>94.03251276887822</v>
       </c>
       <c r="R7">
-        <v>1344.081677320256</v>
+        <v>846.2926149199039</v>
       </c>
       <c r="S7">
-        <v>0.4302829592872522</v>
+        <v>0.3465383043407208</v>
       </c>
       <c r="T7">
-        <v>0.4302829592872522</v>
+        <v>0.3465383043407209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H8">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.904828666666667</v>
+        <v>3.112844666666666</v>
       </c>
       <c r="N8">
-        <v>11.714486</v>
+        <v>9.338533999999999</v>
       </c>
       <c r="O8">
-        <v>0.0982284141177371</v>
+        <v>0.0962303687181678</v>
       </c>
       <c r="P8">
-        <v>0.09822841411773711</v>
+        <v>0.09623036871816783</v>
       </c>
       <c r="Q8">
-        <v>0.2385225542746667</v>
+        <v>0.06623095835777777</v>
       </c>
       <c r="R8">
-        <v>2.146702988472</v>
+        <v>0.5960786252199999</v>
       </c>
       <c r="S8">
-        <v>0.000687227368824872</v>
+        <v>0.0002440811515967639</v>
       </c>
       <c r="T8">
-        <v>0.0006872273688248721</v>
+        <v>0.0002440811515967639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H9">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>53.978117</v>
       </c>
       <c r="O9">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073433</v>
       </c>
       <c r="P9">
-        <v>0.4526177956055148</v>
+        <v>0.5562258596073434</v>
       </c>
       <c r="Q9">
-        <v>1.099066432942667</v>
+        <v>0.3828248009011111</v>
       </c>
       <c r="R9">
-        <v>9.891597896483999</v>
+        <v>3.44542320811</v>
       </c>
       <c r="S9">
-        <v>0.003166612629869641</v>
+        <v>0.001410825399188444</v>
       </c>
       <c r="T9">
-        <v>0.003166612629869641</v>
+        <v>0.001410825399188444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H10">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.85500266666667</v>
+        <v>11.24229066666667</v>
       </c>
       <c r="N10">
-        <v>53.565008</v>
+        <v>33.726872</v>
       </c>
       <c r="O10">
-        <v>0.449153790276748</v>
+        <v>0.3475437716744887</v>
       </c>
       <c r="P10">
-        <v>0.4491537902767481</v>
+        <v>0.3475437716744888</v>
       </c>
       <c r="Q10">
-        <v>1.090654982890667</v>
+        <v>0.2391984710844444</v>
       </c>
       <c r="R10">
-        <v>9.815894846016</v>
+        <v>2.15278623976</v>
       </c>
       <c r="S10">
-        <v>0.003142377694499206</v>
+        <v>0.000881518850551559</v>
       </c>
       <c r="T10">
-        <v>0.003142377694499206</v>
+        <v>0.0008815188505515591</v>
       </c>
     </row>
   </sheetData>
